--- a/data/hotels_by_city/Dallas/Dallas_shard_87.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_87.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Geoff F</t>
+  </si>
+  <si>
     <t>05/28/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I booked this purely because of the hotel revues on this and other hotel sites and boy, were we disappointed big time.  Getting the room cleaned and serviced was a daily battle with indifference at the front desk.  I ended up ringing Comfort Inns Customer Service to try and get something done because the Manager doesn’t appear to be based at the hotel.  Lack of staff seemed to be the reason but the Front Desk people were abysmal with there never ending excuses.  We did get a day rebate on the end but it wasn’t worth all the hassle.  The breakfast was poor and the fruit juice ran out the first day and I was told there was no more in the hotel.  All in all a hotel to avoid, we’ll never stay there again.More</t>
   </si>
   <si>
+    <t>Larry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r568554981-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>This is an OK place to stay but there is a definite lack of attention to details.  We had two rooms for 6 nights and the place is certainly adequate but two mornings in a row there was no milk for cereal at breakfast because the manager had not bothered to get any.  There were two computers which could be used by guests but every day there was a note on the door saying they were out of order because they were updating.  Some days beds were not made and the hallways and stairs needed to be swept.  Also, the hot tub area of the pool was not filled and there was no stopper in the sink.  These are things that could easily be fixed but management needs to make sure it gets done.More</t>
   </si>
   <si>
+    <t>Daniel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r560696898-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Dawson C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r554869431-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Lyloeast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r552573654-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>Cleanliness, maintenance and breakfast were all adequate, but nothing special. The room is nicely sized. There is a small airport nearby which made for a good bit of noise. $10 Uber ride away from the Stockyards. The front desk staff, though, is exceptional. Very helpful, friendly, professional, welcoming, accommodating.</t>
   </si>
   <si>
+    <t>tcm_crew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r539662688-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>....the "free internet access".  This place's internet was blown off the air a few times by thunderstorms this past summer, and it hasn't been the same since.  I've been back maybe four or five times since then, and every time I end up burning a HUGE chunk of my cell phone data plan using my cell as a hot spot because the hotel's internet isn't working.  I've called their service provider, I've spoken to just about everybody who works here about it - and yet, I checked in last night and -BAM- no internet.  Oh, it connects.  My laptop was downloading email for over 10 minutes and wasn't near complete.  Logged onto my cell phone's hot spot and my email was done in about 15 seconds.  The other thing I've noticed is that it seems a lot of the TV remote controls have issues - buttons not working, etc.  Everything else here is great - nice breakfast, comfortable bedding, big rooms, nice staff, etc.  But, if internet access is a make-or-break thing for you, I would strongly recommend you consider another property.More</t>
   </si>
   <si>
+    <t>klktag00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r538619398-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work...No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work tomorrow and can’t due to this lack of incompetence More</t>
   </si>
   <si>
+    <t>Misty C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r527572899-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>JRK1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r484387758-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Louis D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r480859609-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>This week's business trip brought me to Lake Worth which is a suburb of Fort Worth. Stay  at Comfort Suite.  Nice hotel away from the city.  I had a large suite with king size bed. Very comfortable.  Staff is very friendly pleasant. Room was tidy and clean.</t>
   </si>
   <si>
+    <t>cruisenut60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r464606648-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>Nice girlies at the front desk. Good looking hotel. Loved the ferr happy hours each night. Hotel was clean. But, when we arrived in the afternoon so did the police. They were there on a tip of a meth lab in a room on our floor but "we were ok". Left for evening came back to parking lot full of police. Hotel was not sure if we should be in our room. Ok this probably happens in all hotels? Next day all was back to normal good breakfast happy staff. We leave for the day back around 5pm. Our room was not cleaned when complained was told housekeeping had gone home but she had towels.More</t>
   </si>
   <si>
+    <t>kram1984n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r454282856-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>mukersh444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r452865736-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>Most of our stay was good.   The room was nice, breakfast ok, staff friendly.  However, today at 2 we ask lady at desk to have our room cleaned since it was 2 oclock.   She was so busy talking to her boyfriend to be very concerned.   She said empty rooms done first.  Ok,  we get here at 6 and the beds were made, but the door was wide open.  I am afraid it was. Deliberate.     So between 2 and 6 pm our room was open.   Not only was it open it was propped open.   In addition, the first night we stayed here water was pouring in a window and we went through towel after towel.    The first day the room was cleaned at 11, but the manager that was here that day wasnt here the next day.     When the cat is away the place goes down.     We are just finishing our stay and we are deciding whether we want to come back.More</t>
   </si>
   <si>
+    <t>Jeff R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r442630706-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>frankbiggs2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r435631621-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -447,6 +492,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>Chris6998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r432232424-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -465,6 +513,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Brenda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r428493900-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -483,6 +534,9 @@
     <t>I looked over the fact that we had a kitchenette they showed in pics that a toaster was there (no big deal) I just toasted bread in pan. I looked over the fact that there was 1 elevator for over 400 rooms and you had to wait forever to get on it. I would have used stairs but I have a bad knee. BUT, the last straw was when we went down for breakfast Sunday morning and Im assuming she was a hostess or something. Said do you want to use the waffel machine and we were debating on what we wanted. She goes you need to decide because its almost 10 and Im cleaning up! And she actually started taking the food!!! So we had to just grab something!! There was NO reason for that at all. I was going to ask for a small credit because they charged me for everything BUT I DIDN'T GET EVERYTHING..More</t>
   </si>
   <si>
+    <t>Ruth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r424194437-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -498,6 +552,9 @@
     <t>Beautiful suite, TV, wireless internet, desk, fridge.  AC worked well.  Very Clean, good bed.  We stayed in a handicapped room 321 and was very satisfied.  The lobby was really nice, and they had breakfast in the mornings like all Comfort Inn's.  The place looked very well taken care of.  We were mid-way in the building and you could hear traffic but it was very muted.</t>
   </si>
   <si>
+    <t>milehigh39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r422696751-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -516,6 +573,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Mlhpuck222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r422018924-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,6 +594,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Margaret V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r421115183-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -549,6 +612,9 @@
     <t>This Comfort Suites is Great!  My bed was very comfortable.  Would love a little more water pressure in the shower, but overall it was good.  Breakfast in the mornings was very good and they also had a Happy Hour  in the evening.    I would definitely recommend this hotel for your stay.</t>
   </si>
   <si>
+    <t>Derek J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r393488726-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -570,6 +636,9 @@
     <t>Overall our stay was pleasant and I think we'd return. The hotel was clean, recently updated, and comfortable. Kids loved the pool, and the teen used the weights.  The staff were helpful to provide us with anything we needed and offered advice about places to tour.  There was a mixup in happy hour scheduling, so it ended up cancelled the first night.  No biggie.The big downside we find was - At the time of this writing - wifi access was pretty poor. If you could get connected to it at all, in a matter of minutes it became unusably slow. We ended up using mobile data nearly the entire stay.  Overall I'd stay here again, but I hope they can do something to fix it up. For the technically inclined... I think they have 2-3 11g APs per floor. SSIDs are separated by floor# (eg, Comfort Suites - 2 == floor 2). Maximum throughout I could achieve was around 8Mbps, but usually ran around &lt;1Mbps.  Problems ranged from refusal to connect toMore</t>
   </si>
   <si>
+    <t>Clifford S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r369016252-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -591,6 +660,9 @@
     <t>I had been staying at this hotel for over 4 years. Bringing along with me a crew of guys.Will it's under new management and it's not fir the better!!!5 of the guys that came along with me had there reservations screwed up and canceled. The pool area lights don't work and is not being cleaned.Elevator doesn't work all the time. And the coffee machine is broke.My room had a plug in room sent thing that smelled. When asked about the last reservation cancelation I was told that I should be great full that she called to tell the man at noon and check in wasn't till three so it gave him 3 extra hours to find a room some were else--!!!!!More</t>
   </si>
   <si>
+    <t>O3672RJcherylb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r360930248-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -606,6 +678,9 @@
     <t>We were in town for a wedding and had a great stay at Comfort Suites. Our son loved the indoor pool and we enjoyed the hot tub. The room was a nice size for spreading out and we were close to it all without having to be in the middle of town.</t>
   </si>
   <si>
+    <t>Jack B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r359269092-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -621,6 +696,9 @@
     <t>We were greeted by one of the most cordial, accommodating hostesses we've ever encountered as we checked-in! The facility is a very good, economical source for visitors to Fort Worth Stockyards. It's clean, and comfortable, has a good hot breakfast, offers a pool and spa.</t>
   </si>
   <si>
+    <t>TLD64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r358160214-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,6 +714,9 @@
     <t>The property is clean and spacious, and the front desk staff is professional. The hotel has a great view of the city skyscrapers in the distance. The beds and linens are comfortable and it was quiet. The breakfast was a little better than most as it had sausage, bacon, and two different kinds of eggs, The breakfast also included the regular stuff like cereals and yogurt. The internet was satisfactory to do work without being slow or getting disconnected.</t>
   </si>
   <si>
+    <t>Blazinpistol</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r352851220-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -654,6 +735,9 @@
     <t>The suite I got was fantastic! My room has a kitchen with sink, stove top, built in microwave, pots, pans, cooking and eating utensils and coffee maker. The room even had a full size refrigerator.Staff here is excellent. Hot breakfast was fresh and tasty. Only one tiny complaint. The toilet seats are the cheapest you can buy, I guess. They move around a lot and really doesn't fit with everything else being of such high quality in the room. Wi-Fi was fair. Not very fast, and can cause programs to time out from waiting too long for data.I would definitely recommend this hotel. It is really nice. Even though it is close to the highway, the hotel is still pretty quiet inside. I slept really good here, and woke up refreshed after a previous hard road day.I posted pictures of my room as 4th floor awesome suite.More</t>
   </si>
   <si>
+    <t>Terry M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r336418592-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -675,6 +759,9 @@
     <t>We spent 10 days at this hotel in December. The best part of the experience was the people who work at the hotel. They were super nice and helpful to everyone in our group (kids and adults). This included everyone, from housekeeping to the front desk.The hotel is really clean. The rooms are spacious.Breakfast is always good; bacon, sausage, waffles, fruit, eggs, etc. coffee all day long.The pool was warm...even warm enough to swim in for picky me. The hot tim heater broke during our stay, but it didn't really deter us because everything else was super.We stayed in a decent hotel in another State after we left and the kids said, "We went from a 10 to a 1" in regard to the hotel (even though the other hotel was fine).Family friendly and clean.More</t>
   </si>
   <si>
+    <t>SKW78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r331637340-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -688,6 +775,9 @@
   </si>
   <si>
     <t>Friendly staff, clean, and comfortable rooms.  Sitting area was nice.  On a hill with nice view out over the area.  Breakfast was good. Shopping and restaurants aren't right next door, but not too far away.</t>
+  </si>
+  <si>
+    <t>YellowJacket2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r325945254-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -715,6 +805,9 @@
 I highly recommend Comfort Suites and Lake Worth--it's only 3 years old but still looks new and the beds were very comfortable, which was great since I don't normally sleep well in...All of our family &amp; friends had to fly into town for a wedding so we got a block of rooms at Comfort Suites. From the owner to the front desk, to the wonderful young woman who manages the breakfast room, to our hotel room, every minute of the weekend couldn't have been better. The owner blocked rooms as close to each other as possible, and they were all clean and well-furnished. Rooms on the 4th floor even have a large kitchen with a small bar and an almost full-sized refrigerator, which was great for snacks and drinks for the group. We frequently gathered in the breakfast room or lobby since there were so many of us &amp; we enjoyed watching football on the large TVs. Coffee and fruit are available all the time in the breakfast area, which was great for our group. Everything you could possibly need is very close, but the hotel is just far enough away that it's quiet and not crazy with traffic. There's a back way to get down to the restaurant/retail area and once we found that it was quick and easy to run to the grocery store or a restaurant. The hotel provides a great map with all stores/restaurants noted. I highly recommend Comfort Suites and Lake Worth--it's only 3 years old but still looks new and the beds were very comfortable, which was great since I don't normally sleep well in hotels. Many thanks to the entire staff for being so nice, welcoming and helpful!More</t>
   </si>
   <si>
+    <t>lovetonenana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r324982221-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -733,6 +826,9 @@
     <t>If you don't get in suite 301 you will probably be fine. We traveled here for a wedding and got in so late because of flight delays, that we just passed out but not before noticing the smell of dirty feet that permeates this suite. We tried using the housekeepers spray etc to no avail. The hotel is full so we can't move. They offered to clean the carpets in the morning but with my allergies I don't want to have to stay in a room full of chemicals either. Our whole family is here  as well so going elsewhere is not an option.  Can't believe it wasn't noticed by the staff. This is a fairly new hotel but this suite seems beat. The toilet seat slides all over the place and there is cracked tile in the bathroom floor already. Don't know who they let stay here.    Otherwise the hotel has been good. They worked with my sister to get us near each other, have been pleasant and it looks clean. Beware that your GPS may lead you around in circles  to get here.  More</t>
   </si>
   <si>
+    <t>Ty c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r315115096-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -751,6 +847,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Wormangler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r308763268-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -764,6 +863,9 @@
   </si>
   <si>
     <t xml:space="preserve">We attended my nieces wedding in Azle and stayed here overnight. The room was very spacious and stylish. It was clean and the staff was kind and helpful. The free breakfast was great!  We really enjoyed our stay. One of the best places we have stayed at in a long time. </t>
+  </si>
+  <si>
+    <t>HGF001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r286832545-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -791,6 +893,9 @@
 We...We stay at this hotel on an average of twice a year for a couple weeks at a time and over all it IS a nice hotel and offers most everything that a traveler is looking for!Couple of things we experienced during this latest stay that might prompt us to look elsewhere......during a stay that long you are going to have to do laundry!  The facilities do offer laundry and before we have had NO problems but this trip, there were a bunch of construction guys that were staying there as well and they evidently were washing clothes EVERY night and they left such a dirty, filthy mess all the time,a a person did not want to wash anything after they had been there!  One washer remained out-of-order the whole time we were there because it had at least 2 inches of dirt and grease slime in the bottom of it and was not working!  I even had one guy, one night ,who moved our just-finished wet clothes out of a washer and dumped them on the floor, so he could use the washer!  (he used ALL of the washers on each floor all at the same time!)  I had to stand and guard our clothes in the dryer from him and could not go to dinner that night!  We complained to the management and they said that they would say something to him but evidently did not!  We had a lot of noise this time too, we could hear the gentleman in the room next door snoring for 2 nights in a row and had evidently a "herd" of kids in the room above us for several nights as well!  I understand that management cannot control people's children, so we did not complain but it does make for a sleepless stay!  We also had the distinct disadvantage of staying over July 4th and the parking lot and grassy area of the hotel is evidently the locals place of choice to park for the fireworks shows!  Makes it near impossible to get in or out of the facility or anywhere in a vehicle, especially a medium duty truck, like we drive!  Very frustrating when all you want to do is get back to your room after a long, hot, dusty day of showing horses!We had some mold on the shower curtain and drains that would not drain but they were taken care of...........Overall,  still a nice place and we would stay again but not liking the lack of respect for other guests and managements disregard of this happening or doing something about it..........treat others as you would like to be treated!!More</t>
   </si>
   <si>
+    <t>poppyah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r270979571-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -809,6 +914,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>OldMeetingPlanner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r267412324-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -827,6 +935,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>pizzatime817</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r266479415-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -843,6 +954,9 @@
   </si>
   <si>
     <t>May 2014</t>
+  </si>
+  <si>
+    <t>DrMacGyver</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r262360435-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -877,6 +991,9 @@
 In the sitting area, it is so cramped you have to move the chair in order to open the sofa bed.  There was no bedding for the sofa bed.  We called down to the front desk and she said she'd bring it up.  25 minutes later we went...We stayed for 2 nights in a 2 queen bed suite.  This was the second Comfort Suites we stayed at during our stay in DFW.  Overall good stay, but there is some room for improvement.  The good:Front desk staff was friendly.  Hallways and common areas are very clean.  Breakfast was good. WiFi was strong and consistent.  The room was very clean, beds comfortable. The frig &amp; microwave are great to have. Pool/hot tub area was clean and not crowded, plenty of pool towels. There is a patio out back.Elevator is good sized and clean.  Parking lot is well maintained.The bad:We were pretty disappointed that the windows had been bolted shut and the screens removed.  Being able to open the windows and get fresh air is one of the things we really liked about other Comfort Suites we have stayed at.  There is no central air, the below the window unit is somewhat noisy and never really took the humidity out of the room.  This made the room somewhat stuffy.  The weather was beautiful outside.  Would've been wonderful to be able to open the window even a couple inches.  In the sitting area, it is so cramped you have to move the chair in order to open the sofa bed.  There was no bedding for the sofa bed.  We called down to the front desk and she said she'd bring it up.  25 minutes later we went down to find out what had happened.  She had forgotten.  There is a somewhat strong perfume smell in the lobby and hallways -- this can be very irritating/headache-inducing to those who are sensitive.  The sound insulation between floors is not very good.  Even with normal walking, it sounds fairly loud (like stomping).  It wasn't a big deal the first night as the hotel was pretty empty, but more noticeable the second night as it got more full.  There aren't many outlets -- the ones on the lamps are touchy at best - most things (laptop, iPad, phone, etc.) would not charge in them because things fit so loosely they don't make contact.  We ended up pulling the nightstand out, unplugging the clock radio and using that outlet.There is only 1 TV in the bedroom area (the other Comfort Suites had 1 in bed area, 1 in sitting area).  Not a deal breaker, but it was nicer to have 2 (so the child sleeping on sofa bed could watch his own show).  Overall good, but could've been great with some improvements.More</t>
   </si>
   <si>
+    <t>Hollie1960</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r246827751-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -898,6 +1015,9 @@
     <t>We had arranged to meet some new friends in Fort Worth Dallas, so booked this hotel as it was close by. Lovely hotel. Very spacious rooms, with a sitting area. Bed was so comfortable with white cotton bedding, felt like home from home. The staff were so helpful, we planned on going to San Antonio after 3 nights at that hotel. They were only too willing to google maps for us to help with our journey. From there we were going to Louisiana, and once again they provided us with the best routes, and, always with a smile.Breakfast was very good, always a member  of staff in there if needed. The pool was quite cold, maybe I am just a wuss, who knows, and the Jacuzzi was very hot, a little too hot and we asked to have it turned down a little, 104 degrees is a little hot. The only gripe Ii had was the fact that the hoist to assist a disabled person was not working, and our friend and myself have Multiple Sclerosis and needed it.I would highly recommend this hotel for the friendliness, cleanliness and comfort. If we ever went back it would be the one I would stay in.More</t>
   </si>
   <si>
+    <t>RoundRockTravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r244963702-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1039,9 @@
     <t>We stayed at this hotel as this was the most convenient to the venue of the State All Star activities and game played in Azle, Texas.  We were very impressed on how clean and well maintained the property was.  The hotel staff was very friendly and helpful when we required additional linens for family members.  The suite itself seemed oversized which was a real bonus with my wife and older boys.  Even our sons commented on how this was a "big hotel room."  I woke up before the rest of the family and enjoyed catching up on my smart phone and watching GMA on the flat screen in the dining area which had a comfortable couch and chairs in addition to the tables for breakfast.  The breakfast buffet was what you expect at the usual "free breakfast" gig the next morning.  Waffle maker, cereal, scrambled eggs and bacon and fresh fruit and pastries.  Overall a delightful stay!More</t>
   </si>
   <si>
+    <t>Turab16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r240081965-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -941,6 +1064,9 @@
   </si>
   <si>
     <t>First the good points. - The hotel staff is very friendly and very helpful. - The breakfast is decent. - Beds are comfortable. - Rooms are clean. Now the negatives. - The Internet connection was the worst I have ever experienced at ANY hotel period!  It would be very painful to use the Internet to even load a basic page especially during the evening. - The bathroom floor towel / mat was not changed everyday. The other towels were. - There is a strange smell in the hallways which are dimly lit. - Over the two weeks of stay there were times when the shower water was not hot enough. Just mediocre hot at best. - The shuttle service is also very poor as the guy came up with excuses for the couple of times I did have to go somewhere. The biggest pet peeve is the slowest Internet connection. It was really aggravating over the two weeks of stay. More</t>
+  </si>
+  <si>
+    <t>robertru44</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r237906935-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -980,6 +1106,9 @@
 Speaking of showers, we had a problem with the hot water, not what you are thinking, we had TOO MUCH HOT WATER!!  Like I said, we were up at 4 AM and showering (We were in FW for a 10...We love to stay here and do on an average of every six months, Good facility and prices and we have stayed enough times now, they know us on a first name basis!  We unfortunately, ran into a couple of disappointments this time around. we reserved a king suite, since it was the first time ever that my husband and I were away from our 2 children for 10 days, we thought we would make it somewhat romantic!  We got a 2 Queen Suite instead and when we inquired from the manager why that was the case, he informed us that all of the King rooms were reserved!  Well, we reserved one too and we called and talked directly to him, when we made our reservation!  They did offer to switch us to a King room halfway through our stay but it was a hassle to have to pack everything up and leave it in their back room for the day, (since we had to leave at the crack of dawn every morning) and then move to another room that night ,when we got in late and all we wanted to do is take a shower and go to bed!  Speaking of showers, we had a problem with the hot water, not what you are thinking, we had TOO MUCH HOT WATER!!  Like I said, we were up at 4 AM and showering (We were in FW for a 10 day horse show) and the water was unbearably hot, too hot to take a shower or even get under!  There was NO cold water at all.  We had to let the water run in the tub for over 30 minutes to get it to a temperature to be able to shower and even then it was very hot!  We mentioned it to the front desk and they had maintenance look at it, or so they said, but it never fixed the problem.    Also, we had one day that the maids left us bath towels with literal holes and large tears in them!!We were pleasantly surprised when the free breakfast was ready at 5 AM, as we were walking out the door for our day, it was wonderful to have a hot breakfast that early!!  The security is great there and everyone is very friendly and I would still recommend this establishment, just wish our stay had been a little more accommodating!More</t>
   </si>
   <si>
+    <t>Cynthia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r229635925-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1001,6 +1130,9 @@
     <t>Stayed here in August --had two suites right across the hall from each other.  Everything was great--staff was very helpful.  Front desk turned on the breakfast area lights so that our large family could eat the pizza that we had delivered.  Would definitely stay again.More</t>
   </si>
   <si>
+    <t>spurgeonlover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r219651504-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1022,6 +1154,9 @@
     <t>This appears to be a fairly new facility and is in great condition.  We were very much welcomed at the desk when we arrived and the room was excellent - I like the little partition in the room that separates a pull-out couch and chair from the bed.  The bed was very comfortable.  Bathroom was very nice - a high counter for my 6'6" husband - and nicely decorated.   The happy hour was not expected so that was a bonus, although don't look to get full on it.  There were several bowls of nuts and a pretzel snack - along with beer and wine.  We did enjoy that before going out for supper. The manager? came around and was very pleasant. Breakfast was typical fare - waffles (Texas shaped!), eggs, sausage, toast/muffins, cereals, yogurt, bananas/apples, juice/coffee/tea.  It was OK.More</t>
   </si>
   <si>
+    <t>ScottDJones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r210024519-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1175,9 @@
     <t>My wife and I stayed here with the in-laws back in May and will be staying here again soon during the 4th of July holiday. The staff is very helpful and the rooms are really nice. Just like you would expect from a Comfort Suites. They have an indoor pool, hot tub, fitness center, and complimentary breakfast. Whenever we are in Lake Worth we will stay here.More</t>
   </si>
   <si>
+    <t>Garry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r206886425-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1067,6 +1205,9 @@
     <t>Been here twice and really like it. Place is pretty new so everything is in good shape. Indoor pool and hot tub sure were nice. Room was very clean and the beds and pillows at Comfort Suites are our favorites. During the week they have a free happy hour with beer and wine. A very short drive to lots of restaurants. I recommend it.More</t>
   </si>
   <si>
+    <t>Pcstamper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r206627101-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1085,6 +1226,9 @@
     <t>I booked my reservation for a group of senior I was bring to Ft. Worth. the person I talk to I thought had everything down correctly, but when I got up to the Hotel late afternoon the day I had reserved they claimed that my rooms had been reserved for the night before.  They were  able to find a few rooms to  accommodate everyone in my party ( although  we did have to double up on the rooms because the didn't have enough rooms).  The clerk that was on duty was very nice and helpful.  But then they went and charge me for the previous night as a no show. I did manage to get credit for the 5 of the rooms we had stayed in but they still charged me for the 6 no show rooms. Well I will never stay in this hotel again and I will think twice about staying in any other Comfort Suite.  I book 11 rooms at hotels once a month for my group so that is a lot of business they will miss out on.More</t>
   </si>
   <si>
+    <t>Eric G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r201397508-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1103,6 +1247,9 @@
     <t>room seemed to be OK. got there late at night and went right to sleep. The next morning, when we woke up, I noticed the pillow I slept on had mold on the pillow case and was through to the pillow. After telling the Manager, the only response I got was, It must have been from the cleaning supplies on the headboard. I wonder how come it wasn't on the other 2 pillows that was against the headboard. No apology, only a " we will get you another pillow to your room." A lot of good that did us since we were checking out. The breakfast was also disappointing. bacon seemed imitation. Appearance of the hotel was nice, but doubt I would ever stay there again.More</t>
   </si>
   <si>
+    <t>Beth H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r193211691-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1268,9 @@
     <t>Excellent staff!  Very friendly and helpful.  Large pool, hot tub area and workout facility.  Clean rooms.  A little noisy since we were across the hall from the ice machine. Overall great visit and very convenient for our visit to the stock show. Stayed 4 nights and will stay again when we are in the area. More</t>
   </si>
   <si>
+    <t>sarge007-11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r190423929-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1298,9 @@
     <t>Have stayed here on 2 different occasions last year, the latest being on Christmas Eve. The hotel is very clean and also smells clean.Rooms are a good size with a couch in them. There is a little shopping center very close by which includes an Albertsons grocery store.If we are ever in the area again, this will be the place we stay.More</t>
   </si>
   <si>
+    <t>Agatag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r190381725-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1163,6 +1316,9 @@
     <t>This hotel made our visit with family in Ft Worth a real pleasure, would recommend it to anyone, great value for your bucks! It's new and well kept, plus the staff was friendly and always ready to assist you, plus it has a great breakfast, better than most hotels.More</t>
   </si>
   <si>
+    <t>martefoster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r188001535-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1337,9 @@
     <t>i chose this hotel because it was close to family while i was on vacation with my family, new hotel, very clean and neat, good breakfast, we stayed 7 days , good price, we were very happy with the staff, thanks.More</t>
   </si>
   <si>
+    <t>nthompsonip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r185840538-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1247,6 +1406,9 @@
     <t>Was very surprised as to how nice this hotel was.  We normally travel to the Fort Worth area for business and stay at one of the hotels downtown, but because we had to travel outside of Fort Worth we chose this hotel because of the convenience to the location we were to visit.  The rooms were very nice and comfortable, the "Free" breakfast was very good, the staff were very friendly and informative.  And you couldn't beat the price.  We would definitely stay at this hotel again.More</t>
   </si>
   <si>
+    <t>AZMesaFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r178595420-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1427,9 @@
     <t>My wife and I stayed here for tonight's. The hotel staff is one of the friendliest staff's I have ever encountered in all my travel. Every worker from the front desk people to the breakfast person to the house keeping person were all friendly and greeted you every time. The rooms are larger than normal and vary clean. The breakfast area was extremely clean and had a wide variety of food that was constantly Replenished. The food is what you would expect from a comfort suites with juices, milk, yogurt, boiled eggs, two waffle makers, variety of bread, Sausage and eggs one morning and biscuits and gravy on the other. The area around the hotel was really nice with a wide variety of places to eat. The hotel had a security person on site and in the parking lot at night so when we came in late we felt safe and felt our care was safe also. The only reason I did not give this hotel a perfect score was because on the second night my room key did not work and when I went down to the front desk to get a new key the front desk person asked me what my room number was and gave me a new key without asking my name or checking my ID. This is a major problem with an easy solution. More</t>
   </si>
   <si>
+    <t>NorWester12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r177539148-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1452,9 @@
   </si>
   <si>
     <t>I travel to Lake Worth once a month on average and have stayed in almost all of the local chain hotels. Comfort Suites is a great value, very good location and the staff if very, very, polite, welcoming and helpful. Rooms and hallways are clean and kept up.  This will be my "go to" lodging for the area. (Surprisingly quiet for the location!)More</t>
+  </si>
+  <si>
+    <t>VinGins</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r176312459-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -1315,6 +1483,9 @@
 But, wait...there's more. Our next stay at any Choice Hotel will be free as they are running a special through November for a free stay for every two separate stays at one of their thousands of locations....Our second stay this year at this new property. Everything about this place is top notch. Large inviting common space as you enter, polished wood trimming throughout. On looks alone I give this one 5 stars, especially considering the rate we received through Choice Hotels. The rooms were outfitted with handsome, modern decor, and the whole place had a pleasing smell to it (not that over the top disinfectant smell can sometimes begin to permeate over time). Great bed and linens, soft towels, AC worked great, as did the wifi. We were given both an early check in and late check out to accommodate our travel schedule and the staff was genuinely friendly and concerned with our needs (which were few as everything had been addressed). I'm usually not a fan of the complimentary breakfast, but this hotel goes a little further than most in providing a varied selection and a large comfortable room for folks to gather. And what a nice group of folks there were staying in this hotel. It's refreshing to see guests striking up conversations with one another rather than staring in silence at the TV. All in all, another perfect stay at this jewel west of Fort Worth.But, wait...there's more. Our next stay at any Choice Hotel will be free as they are running a special through November for a free stay for every two separate stays at one of their thousands of locations. For working travelers such as we are, this is a real bonus. Check out their website for details. And, when we're back through Fort Worth again, we'll be staying here. I might add that there this location puts you in close proximity to quality restaurants and inexpensive gas all in safe surroundings right off the loop. Some rooms even offer spectacular views of the surrounding landscape. I think that about covers it. Happy motoring!More</t>
   </si>
   <si>
+    <t>suzanne s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r174133954-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1357,6 +1528,9 @@
     <t>We stayed for 9 days at this hotel and had a good experience the whole time!  We actually had to change rooms mid-stay because our room did not have water pressure in the shower and it was a Sunday, so no plumber available, but the manager switched us to a like room within a very short time!  Nice accommodations, nice facility, good breakfast and very friendly help!  The only things I would have changed were some of the other guests rudeness (LOL!) and maybe having a guest laundry on the first floor!  Will definitely stay again, if we are in the area and appreciate all the effort the management puts into each guests stay!  Thank you!!More</t>
   </si>
   <si>
+    <t>Boco81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r162914523-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1555,9 @@
     <t>As a two week stay turned into five weeks, a friendly &amp; helpful Staff made all the difference. Kudos to the Front Desk personnel, Valerie, Yeneti, Lily, Brandon, Cole &amp; Fabian and all others who took care of us &amp; gave us a peaceful state of mind in secure surroundings. When we need to return in the future, hope to see y'all once again. Many thanks, Bob &amp; Niki Bohanon, Room 409.More</t>
   </si>
   <si>
+    <t>DLTIGOMEZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r161321989-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1408,6 +1585,9 @@
     <t>Stayed at this hotel for a week and it was a great experience. Rooms were immaculate and well kept. Breakfast was very old, hit and ready each morning. I strongly recommend this hotel when in north Texas!More</t>
   </si>
   <si>
+    <t>Millie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r160567515-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1429,6 +1609,9 @@
     <t>Absolutely wonderful hotel.  The staff was beyond helpful.  The breaksfast attendant was great ...lovely smile.  I really felt like I was at home.  Also, the rooms were wonderful and I really felt that the management was putting in great effort to insure that the guests were taken care of.  Great place!More</t>
   </si>
   <si>
+    <t>happytraveler771</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r159153890-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1450,6 +1633,9 @@
     <t>I chose this hotel based on reviews on Trip Advisor and I'm glad I did!  The first thing I noticed upon entering the hotel was a wonderful "clean" smell.  Everything was spotless.  My room was just as clean as the lobby.  Although I didn't use the amenities, I did enjoy the free breakfast which was plentiful -- fruit, yogurt, breads, waffles, etc.  The location was very convenient to the expressway and restaurants/shopping.  I will definitely stay there on my next trip to Fort Worth.More</t>
   </si>
   <si>
+    <t>Mark W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r157709745-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1468,6 +1654,9 @@
     <t>Fully staffed hotel that is clean and caters to the business traveler as well as families. Full cable TV(No X rated pay per view,thank you!) Nice indoor pool and hot tub area. Breakfast area was nice and fully stocked. (Any past issues with this area have been addressed). Rooms are clean and comfortable. Hotel is located in a good area. GOOD security is provided in the parking lot seven nights a week 10P-6A. Shopping and restaurants within three minutes driving time.More</t>
   </si>
   <si>
+    <t>Guest56797</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r150698119-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1489,6 +1678,9 @@
     <t>Don't know what happened in December but we stayed here two nights in January 2013 and every thing was great!!! Friendly staff,great breakfast and clean. Beds were great also. Spacious rooms. We will stay here again when in Ft Worth!GmaMore</t>
   </si>
   <si>
+    <t>Oil N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r147676839-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1510,6 +1702,9 @@
     <t>Three nights (Thursday, Friday and Saturday) and three rooms for a reunion and, wow: were we disappointed.  Friday morning, breakfast supposedly served until 10 am but the eggs were gone by 8:45 - and no one in the kitchen.  The desk clerk had a housekeeper come in, who looked around and found bacon, then said, "we have no more eggs."  Same on Saturday, they ran out but they at least made more eggs.  No dedicated breakfast staff - it was the housekeeping staff that tried their best, but as they went to re-fill empty juice containers, someone would tell them the coffee was gone, then the milk was gone, then the trash container was over-flowing.  Then... "no more eggs?" The housekeeping staff was embarrassed and taking the brunt of the complaints - that's just not right!  We had to move from one of our rooms because the window seals that kept the slider window closed and locked, allowed a cold draft and road noise that kept the heater running full time to keep up. It was to be fixed on Friday, but the desk clerk Friday afternoon said that maintenance was only part time - and Friday was a day they didn't work.  Two rooms had blankets, one didn't. And, there was no manager the whole time! This is a new Comfort Suites? They're going to lose this franchise and become "Billy Bob's Budget Inn" unless they make some changes.More</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r140178334-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +1724,9 @@
   </si>
   <si>
     <t>We stayed for 2 nights to visit with family.  Friendly staff, great rooms, good breakfast, and a great price.  Sheets on the bed were a little scratchy, that was my only complaint.  Would stay here again for sure!More</t>
+  </si>
+  <si>
+    <t>JNargang</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r138782779-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -2051,43 +2249,47 @@
       <c r="A2" t="n">
         <v>60330</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>125015</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2101,50 +2303,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60330</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>561</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2164,50 +2370,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60330</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>1483</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -2227,50 +2437,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60330</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2284,50 +2498,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60330</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2347,50 +2565,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60330</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>124365</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2410,50 +2632,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60330</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2467,50 +2693,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60330</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>17009</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2524,50 +2754,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60330</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2587,50 +2821,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60330</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2644,50 +2882,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60330</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -2707,50 +2949,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60330</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125021</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2768,50 +3014,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60330</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2831,50 +3081,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60330</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>15230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2892,50 +3146,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60330</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125023</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2949,50 +3207,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60330</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125024</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3006,50 +3268,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60330</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>48928</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3067,50 +3333,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60330</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>48626</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3130,50 +3400,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60330</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>125025</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3191,50 +3465,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60330</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125026</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3254,50 +3532,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60330</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>99696</v>
+      </c>
+      <c r="C22" t="s">
+        <v>192</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3317,50 +3599,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60330</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>73580</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3374,50 +3660,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60330</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>24824</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3431,50 +3721,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60330</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125027</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3488,50 +3782,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60330</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3549,50 +3847,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60330</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125028</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3612,50 +3914,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60330</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125029</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="J28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="K28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3669,50 +3975,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60330</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>5505</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3726,50 +4036,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60330</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125030</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3787,50 +4101,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60330</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125031</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3848,50 +4166,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60330</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125032</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3905,50 +4227,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60330</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125033</v>
+      </c>
+      <c r="C33" t="s">
+        <v>268</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3962,50 +4288,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60330</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125034</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4019,50 +4349,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60330</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125035</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4080,50 +4414,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60330</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125036</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="J36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4143,50 +4481,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60330</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125037</v>
+      </c>
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="J37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="K37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4204,50 +4546,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60330</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125038</v>
+      </c>
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="O38" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -4267,50 +4613,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60330</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125039</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="J39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4328,50 +4678,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60330</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125040</v>
+      </c>
+      <c r="C40" t="s">
+        <v>317</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="J40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="K40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4389,50 +4743,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60330</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125041</v>
+      </c>
+      <c r="C41" t="s">
+        <v>325</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="J41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="K41" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4450,50 +4808,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60330</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125042</v>
+      </c>
+      <c r="C42" t="s">
+        <v>333</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="L42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O42" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4505,56 +4867,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60330</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>99707</v>
+      </c>
+      <c r="C43" t="s">
+        <v>342</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="J43" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4572,56 +4938,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X43" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60330</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125034</v>
+      </c>
+      <c r="C44" t="s">
+        <v>281</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="J44" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="L44" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -4639,56 +5009,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X44" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60330</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>7310</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="J45" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4704,56 +5078,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X45" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60330</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125043</v>
+      </c>
+      <c r="C46" t="s">
+        <v>362</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="J46" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="K46" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4769,56 +5147,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X46" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60330</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125044</v>
+      </c>
+      <c r="C47" t="s">
+        <v>370</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>328</v>
+        <v>373</v>
       </c>
       <c r="K47" t="s">
-        <v>329</v>
+        <v>374</v>
       </c>
       <c r="L47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4840,56 +5222,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="X47" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Y47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60330</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>111626</v>
+      </c>
+      <c r="C48" t="s">
+        <v>377</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="J48" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="K48" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4911,56 +5297,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="X48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="Y48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60330</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125045</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="O49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -4982,56 +5372,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="X49" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60330</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>13398</v>
+      </c>
+      <c r="C50" t="s">
+        <v>394</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5053,47 +5447,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="X50" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="Y50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60330</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>3081</v>
+      </c>
+      <c r="C51" t="s">
+        <v>401</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="J51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="K51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="L51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
@@ -5110,56 +5508,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="X51" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60330</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125046</v>
+      </c>
+      <c r="C52" t="s">
+        <v>408</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5181,56 +5583,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="X52" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60330</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125047</v>
+      </c>
+      <c r="C53" t="s">
+        <v>418</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="J53" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="K53" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="L53" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5252,56 +5658,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="X53" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Y53" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60330</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125048</v>
+      </c>
+      <c r="C54" t="s">
+        <v>424</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="J54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5323,56 +5733,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="X54" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60330</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125049</v>
+      </c>
+      <c r="C55" t="s">
+        <v>431</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5394,13 +5808,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="X55" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Y55" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
@@ -5413,37 +5827,37 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5455,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="X56" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60330</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>99696</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="J57" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K57" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="L57" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="O57" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5526,47 +5944,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="X57" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="Y57" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60330</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125050</v>
+      </c>
+      <c r="C58" t="s">
+        <v>454</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J58" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="K58" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s">
-        <v>405</v>
+        <v>459</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -5593,56 +6015,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="X58" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="Y58" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60330</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125051</v>
+      </c>
+      <c r="C59" t="s">
+        <v>461</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="K59" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="L59" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="O59" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5664,47 +6090,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="X59" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="Y59" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60330</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125052</v>
+      </c>
+      <c r="C60" t="s">
+        <v>470</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J60" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="K60" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="L60" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5731,56 +6161,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="X60" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="Y60" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60330</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>17855</v>
+      </c>
+      <c r="C61" t="s">
+        <v>479</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="J61" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="K61" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="L61" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5802,56 +6236,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="X61" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="Y61" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60330</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125034</v>
+      </c>
+      <c r="C62" t="s">
+        <v>281</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="J62" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="K62" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5873,47 +6311,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="X62" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="Y62" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60330</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125053</v>
+      </c>
+      <c r="C63" t="s">
+        <v>494</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="J63" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="K63" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="L63" t="s">
-        <v>441</v>
+        <v>499</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -5940,56 +6382,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="X63" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="Y63" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60330</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125054</v>
+      </c>
+      <c r="C64" t="s">
+        <v>503</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="J64" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="K64" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="L64" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="O64" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6001,56 +6447,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X64" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y64" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60330</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125055</v>
+      </c>
+      <c r="C65" t="s">
+        <v>513</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>455</v>
+        <v>515</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>516</v>
       </c>
       <c r="K65" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="L65" t="s">
-        <v>458</v>
+        <v>518</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>459</v>
+        <v>519</v>
       </c>
       <c r="O65" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6072,56 +6522,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X65" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y65" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60330</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125056</v>
+      </c>
+      <c r="C66" t="s">
+        <v>521</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>462</v>
+        <v>523</v>
       </c>
       <c r="J66" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="K66" t="s">
-        <v>464</v>
+        <v>525</v>
       </c>
       <c r="L66" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="O66" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6143,56 +6597,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X66" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y66" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60330</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>2537</v>
+      </c>
+      <c r="C67" t="s">
+        <v>529</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="J67" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="K67" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="L67" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="O67" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6214,56 +6672,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X67" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y67" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60330</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125057</v>
+      </c>
+      <c r="C68" t="s">
+        <v>536</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="J68" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="K68" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="L68" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="O68" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6283,56 +6745,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X68" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y68" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60330</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>125058</v>
+      </c>
+      <c r="C69" t="s">
+        <v>544</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="J69" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -6354,56 +6820,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X69" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y69" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60330</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="J70" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="K70" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6425,47 +6895,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X70" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y70" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60330</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>125059</v>
+      </c>
+      <c r="C71" t="s">
+        <v>560</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="J71" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="K71" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="L71" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
@@ -6492,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="X71" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="Y71" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_87.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Geoff F</t>
-  </si>
-  <si>
-    <t>05/28/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r593389723-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>2049085</t>
+  </si>
+  <si>
+    <t>593389723</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Dirty hallway carpet! Breakfast barely fair!</t>
+  </si>
+  <si>
+    <t>I stayed here one night. The hallway carpet is stained. It’s not up to the standards of a comfort suites. The orange juice was out of juice. The eggs did not taste good. I had to ask for them to put out the whole wheat bread. The TV in the room barely has any volume, and is too small for the room. I can’t recommend this hotel.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r588377380-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>588377380</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Not as great as expected</t>
+  </si>
+  <si>
+    <t>The room was good. But there was no WiFi throughout our stay. The smaller of two pools was not working. Also AC was out for the weekend in the first floor so eating breakfast on first floor was very hot and uncomfortable. Humidity didn’t help.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r586538348-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586538348</t>
+  </si>
+  <si>
+    <t>06/10/2018</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Nice, clean and comfy place to stay. Great location right off freeway with lots of places for dining nearby. The hotel is well kept up. The only draw back is the noise from freeway so if you want to stay here, request a room furthest away from freeway.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r571874474-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>2049085</t>
-  </si>
-  <si>
     <t>571874474</t>
   </si>
   <si>
@@ -186,9 +240,6 @@
     <t>I booked this purely because of the hotel revues on this and other hotel sites and boy, were we disappointed big time.  Getting the room cleaned and serviced was a daily battle with indifference at the front desk.  I ended up ringing Comfort Inns Customer Service to try and get something done because the Manager doesn’t appear to be based at the hotel.  Lack of staff seemed to be the reason but the Front Desk people were abysmal with there never ending excuses.  We did get a day rebate on the end but it wasn’t worth all the hassle.  The breakfast was poor and the fruit juice ran out the first day and I was told there was no more in the hotel.  All in all a hotel to avoid, we’ll never stay there again.More</t>
   </si>
   <si>
-    <t>Larry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r568554981-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -204,15 +255,9 @@
     <t>This is an OK place to stay but there is a definite lack of attention to details.  We had two rooms for 6 nights and the place is certainly adequate but two mornings in a row there was no milk for cereal at breakfast because the manager had not bothered to get any.  There were two computers which could be used by guests but every day there was a note on the door saying they were out of order because they were updating.  Some days beds were not made and the hallways and stairs needed to be swept.  Also, the hot tub area of the pool was not filled and there was no stopper in the sink.  These are things that could easily be fixed but management needs to make sure it gets done.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>This is an OK place to stay but there is a definite lack of attention to details.  We had two rooms for 6 nights and the place is certainly adequate but two mornings in a row there was no milk for cereal at breakfast because the manager had not bothered to get any.  There were two computers which could be used by guests but every day there was a note on the door saying they were out of order because they were updating.  Some days beds were not made and the hallways and stairs needed to be swept.  Also, the hot tub area of the pool was not filled and there was no stopper in the sink.  These are things that could easily be fixed but management needs to make sure it gets done.More</t>
   </si>
   <si>
-    <t>Daniel P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r560696898-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,9 +276,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Dawson C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r554869431-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,9 +297,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Lyloeast</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r552573654-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,9 +312,6 @@
     <t>Cleanliness, maintenance and breakfast were all adequate, but nothing special. The room is nicely sized. There is a small airport nearby which made for a good bit of noise. $10 Uber ride away from the Stockyards. The front desk staff, though, is exceptional. Very helpful, friendly, professional, welcoming, accommodating.</t>
   </si>
   <si>
-    <t>tcm_crew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r539662688-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,9 +336,6 @@
     <t>....the "free internet access".  This place's internet was blown off the air a few times by thunderstorms this past summer, and it hasn't been the same since.  I've been back maybe four or five times since then, and every time I end up burning a HUGE chunk of my cell phone data plan using my cell as a hot spot because the hotel's internet isn't working.  I've called their service provider, I've spoken to just about everybody who works here about it - and yet, I checked in last night and -BAM- no internet.  Oh, it connects.  My laptop was downloading email for over 10 minutes and wasn't near complete.  Logged onto my cell phone's hot spot and my email was done in about 15 seconds.  The other thing I've noticed is that it seems a lot of the TV remote controls have issues - buttons not working, etc.  Everything else here is great - nice breakfast, comfortable bedding, big rooms, nice staff, etc.  But, if internet access is a make-or-break thing for you, I would strongly recommend you consider another property.More</t>
   </si>
   <si>
-    <t>klktag00</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r538619398-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,15 +351,9 @@
     <t>No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work...No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work tomorrow and can’t due to this lack of incompetence MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work...No wonder this hotel was on sale on Hotels.com. We had a ton of problems that never got fixed. The reception on the TV was extremely fuzzy. Not sure why in today’s day and age with a flat screen TV and trying to watch NFL football on the Local NBC channel was very fuzzy. The hotel itself was experiencing some AC problems. The hallways were over 80 degrees and unbearable to be in. Luckily the room AC worked. And then there was the internet or should I say the lack of internet!  We were told and it was advertised that there was free WiFi. We never could get it to work. We were given a password but not told the internet network name. Called to ask and the front desk said it was comfort suites 2. Well that wasn’t a secure network so why would it need a password. We called again she said she would reset it. Still didn’t work. Went and visited her at desk. She forgot to turn it back on. So she did and I showed her it wasn’t secure and didn’t need a password she said yes it does wait for it to reset. We have tried and tried and tried and it never worked. Again this is ridiculous for a hotel to not have an internet that works. We are in town on business and needed the internet to finalize our presentations for work tomorrow and can’t due to this lack of incompetence More</t>
   </si>
   <si>
-    <t>Misty C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r527572899-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,9 +372,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>JRK1970</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r484387758-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,9 +390,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>Louis D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r480859609-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -384,9 +405,6 @@
     <t>This week's business trip brought me to Lake Worth which is a suburb of Fort Worth. Stay  at Comfort Suite.  Nice hotel away from the city.  I had a large suite with king size bed. Very comfortable.  Staff is very friendly pleasant. Room was tidy and clean.</t>
   </si>
   <si>
-    <t>cruisenut60</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r464606648-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -408,9 +426,6 @@
     <t>Nice girlies at the front desk. Good looking hotel. Loved the ferr happy hours each night. Hotel was clean. But, when we arrived in the afternoon so did the police. They were there on a tip of a meth lab in a room on our floor but "we were ok". Left for evening came back to parking lot full of police. Hotel was not sure if we should be in our room. Ok this probably happens in all hotels? Next day all was back to normal good breakfast happy staff. We leave for the day back around 5pm. Our room was not cleaned when complained was told housekeeping had gone home but she had towels.More</t>
   </si>
   <si>
-    <t>kram1984n</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r454282856-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -429,9 +444,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>mukersh444</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r452865736-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -450,9 +462,6 @@
     <t>Most of our stay was good.   The room was nice, breakfast ok, staff friendly.  However, today at 2 we ask lady at desk to have our room cleaned since it was 2 oclock.   She was so busy talking to her boyfriend to be very concerned.   She said empty rooms done first.  Ok,  we get here at 6 and the beds were made, but the door was wide open.  I am afraid it was. Deliberate.     So between 2 and 6 pm our room was open.   Not only was it open it was propped open.   In addition, the first night we stayed here water was pouring in a window and we went through towel after towel.    The first day the room was cleaned at 11, but the manager that was here that day wasnt here the next day.     When the cat is away the place goes down.     We are just finishing our stay and we are deciding whether we want to come back.More</t>
   </si>
   <si>
-    <t>Jeff R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r442630706-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -471,9 +480,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>frankbiggs2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r435631621-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -492,9 +498,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>Chris6998</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r432232424-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -513,9 +516,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Brenda B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r428493900-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -534,9 +534,6 @@
     <t>I looked over the fact that we had a kitchenette they showed in pics that a toaster was there (no big deal) I just toasted bread in pan. I looked over the fact that there was 1 elevator for over 400 rooms and you had to wait forever to get on it. I would have used stairs but I have a bad knee. BUT, the last straw was when we went down for breakfast Sunday morning and Im assuming she was a hostess or something. Said do you want to use the waffel machine and we were debating on what we wanted. She goes you need to decide because its almost 10 and Im cleaning up! And she actually started taking the food!!! So we had to just grab something!! There was NO reason for that at all. I was going to ask for a small credit because they charged me for everything BUT I DIDN'T GET EVERYTHING..More</t>
   </si>
   <si>
-    <t>Ruth B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r424194437-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,9 +549,6 @@
     <t>Beautiful suite, TV, wireless internet, desk, fridge.  AC worked well.  Very Clean, good bed.  We stayed in a handicapped room 321 and was very satisfied.  The lobby was really nice, and they had breakfast in the mornings like all Comfort Inn's.  The place looked very well taken care of.  We were mid-way in the building and you could hear traffic but it was very muted.</t>
   </si>
   <si>
-    <t>milehigh39</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r422696751-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -573,9 +567,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Mlhpuck222</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r422018924-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,9 +585,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Margaret V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r421115183-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -612,9 +600,6 @@
     <t>This Comfort Suites is Great!  My bed was very comfortable.  Would love a little more water pressure in the shower, but overall it was good.  Breakfast in the mornings was very good and they also had a Happy Hour  in the evening.    I would definitely recommend this hotel for your stay.</t>
   </si>
   <si>
-    <t>Derek J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r393488726-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -636,9 +621,6 @@
     <t>Overall our stay was pleasant and I think we'd return. The hotel was clean, recently updated, and comfortable. Kids loved the pool, and the teen used the weights.  The staff were helpful to provide us with anything we needed and offered advice about places to tour.  There was a mixup in happy hour scheduling, so it ended up cancelled the first night.  No biggie.The big downside we find was - At the time of this writing - wifi access was pretty poor. If you could get connected to it at all, in a matter of minutes it became unusably slow. We ended up using mobile data nearly the entire stay.  Overall I'd stay here again, but I hope they can do something to fix it up. For the technically inclined... I think they have 2-3 11g APs per floor. SSIDs are separated by floor# (eg, Comfort Suites - 2 == floor 2). Maximum throughout I could achieve was around 8Mbps, but usually ran around &lt;1Mbps.  Problems ranged from refusal to connect toMore</t>
   </si>
   <si>
-    <t>Clifford S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r369016252-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -660,9 +642,6 @@
     <t>I had been staying at this hotel for over 4 years. Bringing along with me a crew of guys.Will it's under new management and it's not fir the better!!!5 of the guys that came along with me had there reservations screwed up and canceled. The pool area lights don't work and is not being cleaned.Elevator doesn't work all the time. And the coffee machine is broke.My room had a plug in room sent thing that smelled. When asked about the last reservation cancelation I was told that I should be great full that she called to tell the man at noon and check in wasn't till three so it gave him 3 extra hours to find a room some were else--!!!!!More</t>
   </si>
   <si>
-    <t>O3672RJcherylb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r360930248-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -678,9 +657,6 @@
     <t>We were in town for a wedding and had a great stay at Comfort Suites. Our son loved the indoor pool and we enjoyed the hot tub. The room was a nice size for spreading out and we were close to it all without having to be in the middle of town.</t>
   </si>
   <si>
-    <t>Jack B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r359269092-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -696,9 +672,6 @@
     <t>We were greeted by one of the most cordial, accommodating hostesses we've ever encountered as we checked-in! The facility is a very good, economical source for visitors to Fort Worth Stockyards. It's clean, and comfortable, has a good hot breakfast, offers a pool and spa.</t>
   </si>
   <si>
-    <t>TLD64</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r358160214-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -714,9 +687,6 @@
     <t>The property is clean and spacious, and the front desk staff is professional. The hotel has a great view of the city skyscrapers in the distance. The beds and linens are comfortable and it was quiet. The breakfast was a little better than most as it had sausage, bacon, and two different kinds of eggs, The breakfast also included the regular stuff like cereals and yogurt. The internet was satisfactory to do work without being slow or getting disconnected.</t>
   </si>
   <si>
-    <t>Blazinpistol</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r352851220-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -735,9 +705,6 @@
     <t>The suite I got was fantastic! My room has a kitchen with sink, stove top, built in microwave, pots, pans, cooking and eating utensils and coffee maker. The room even had a full size refrigerator.Staff here is excellent. Hot breakfast was fresh and tasty. Only one tiny complaint. The toilet seats are the cheapest you can buy, I guess. They move around a lot and really doesn't fit with everything else being of such high quality in the room. Wi-Fi was fair. Not very fast, and can cause programs to time out from waiting too long for data.I would definitely recommend this hotel. It is really nice. Even though it is close to the highway, the hotel is still pretty quiet inside. I slept really good here, and woke up refreshed after a previous hard road day.I posted pictures of my room as 4th floor awesome suite.More</t>
   </si>
   <si>
-    <t>Terry M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r336418592-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -759,9 +726,6 @@
     <t>We spent 10 days at this hotel in December. The best part of the experience was the people who work at the hotel. They were super nice and helpful to everyone in our group (kids and adults). This included everyone, from housekeeping to the front desk.The hotel is really clean. The rooms are spacious.Breakfast is always good; bacon, sausage, waffles, fruit, eggs, etc. coffee all day long.The pool was warm...even warm enough to swim in for picky me. The hot tim heater broke during our stay, but it didn't really deter us because everything else was super.We stayed in a decent hotel in another State after we left and the kids said, "We went from a 10 to a 1" in regard to the hotel (even though the other hotel was fine).Family friendly and clean.More</t>
   </si>
   <si>
-    <t>SKW78</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r331637340-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -775,9 +739,6 @@
   </si>
   <si>
     <t>Friendly staff, clean, and comfortable rooms.  Sitting area was nice.  On a hill with nice view out over the area.  Breakfast was good. Shopping and restaurants aren't right next door, but not too far away.</t>
-  </si>
-  <si>
-    <t>YellowJacket2</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r325945254-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -805,9 +766,6 @@
 I highly recommend Comfort Suites and Lake Worth--it's only 3 years old but still looks new and the beds were very comfortable, which was great since I don't normally sleep well in...All of our family &amp; friends had to fly into town for a wedding so we got a block of rooms at Comfort Suites. From the owner to the front desk, to the wonderful young woman who manages the breakfast room, to our hotel room, every minute of the weekend couldn't have been better. The owner blocked rooms as close to each other as possible, and they were all clean and well-furnished. Rooms on the 4th floor even have a large kitchen with a small bar and an almost full-sized refrigerator, which was great for snacks and drinks for the group. We frequently gathered in the breakfast room or lobby since there were so many of us &amp; we enjoyed watching football on the large TVs. Coffee and fruit are available all the time in the breakfast area, which was great for our group. Everything you could possibly need is very close, but the hotel is just far enough away that it's quiet and not crazy with traffic. There's a back way to get down to the restaurant/retail area and once we found that it was quick and easy to run to the grocery store or a restaurant. The hotel provides a great map with all stores/restaurants noted. I highly recommend Comfort Suites and Lake Worth--it's only 3 years old but still looks new and the beds were very comfortable, which was great since I don't normally sleep well in hotels. Many thanks to the entire staff for being so nice, welcoming and helpful!More</t>
   </si>
   <si>
-    <t>lovetonenana</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r324982221-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -826,9 +784,6 @@
     <t>If you don't get in suite 301 you will probably be fine. We traveled here for a wedding and got in so late because of flight delays, that we just passed out but not before noticing the smell of dirty feet that permeates this suite. We tried using the housekeepers spray etc to no avail. The hotel is full so we can't move. They offered to clean the carpets in the morning but with my allergies I don't want to have to stay in a room full of chemicals either. Our whole family is here  as well so going elsewhere is not an option.  Can't believe it wasn't noticed by the staff. This is a fairly new hotel but this suite seems beat. The toilet seat slides all over the place and there is cracked tile in the bathroom floor already. Don't know who they let stay here.    Otherwise the hotel has been good. They worked with my sister to get us near each other, have been pleasant and it looks clean. Beware that your GPS may lead you around in circles  to get here.  More</t>
   </si>
   <si>
-    <t>Ty c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r315115096-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -847,9 +802,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Wormangler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r308763268-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -863,9 +815,6 @@
   </si>
   <si>
     <t xml:space="preserve">We attended my nieces wedding in Azle and stayed here overnight. The room was very spacious and stylish. It was clean and the staff was kind and helpful. The free breakfast was great!  We really enjoyed our stay. One of the best places we have stayed at in a long time. </t>
-  </si>
-  <si>
-    <t>HGF001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r286832545-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -893,9 +842,6 @@
 We...We stay at this hotel on an average of twice a year for a couple weeks at a time and over all it IS a nice hotel and offers most everything that a traveler is looking for!Couple of things we experienced during this latest stay that might prompt us to look elsewhere......during a stay that long you are going to have to do laundry!  The facilities do offer laundry and before we have had NO problems but this trip, there were a bunch of construction guys that were staying there as well and they evidently were washing clothes EVERY night and they left such a dirty, filthy mess all the time,a a person did not want to wash anything after they had been there!  One washer remained out-of-order the whole time we were there because it had at least 2 inches of dirt and grease slime in the bottom of it and was not working!  I even had one guy, one night ,who moved our just-finished wet clothes out of a washer and dumped them on the floor, so he could use the washer!  (he used ALL of the washers on each floor all at the same time!)  I had to stand and guard our clothes in the dryer from him and could not go to dinner that night!  We complained to the management and they said that they would say something to him but evidently did not!  We had a lot of noise this time too, we could hear the gentleman in the room next door snoring for 2 nights in a row and had evidently a "herd" of kids in the room above us for several nights as well!  I understand that management cannot control people's children, so we did not complain but it does make for a sleepless stay!  We also had the distinct disadvantage of staying over July 4th and the parking lot and grassy area of the hotel is evidently the locals place of choice to park for the fireworks shows!  Makes it near impossible to get in or out of the facility or anywhere in a vehicle, especially a medium duty truck, like we drive!  Very frustrating when all you want to do is get back to your room after a long, hot, dusty day of showing horses!We had some mold on the shower curtain and drains that would not drain but they were taken care of...........Overall,  still a nice place and we would stay again but not liking the lack of respect for other guests and managements disregard of this happening or doing something about it..........treat others as you would like to be treated!!More</t>
   </si>
   <si>
-    <t>poppyah</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r270979571-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -914,9 +860,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>OldMeetingPlanner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r267412324-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -935,9 +878,6 @@
     <t>March 2015</t>
   </si>
   <si>
-    <t>pizzatime817</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r266479415-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -954,9 +894,6 @@
   </si>
   <si>
     <t>May 2014</t>
-  </si>
-  <si>
-    <t>DrMacGyver</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r262360435-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -991,9 +928,6 @@
 In the sitting area, it is so cramped you have to move the chair in order to open the sofa bed.  There was no bedding for the sofa bed.  We called down to the front desk and she said she'd bring it up.  25 minutes later we went...We stayed for 2 nights in a 2 queen bed suite.  This was the second Comfort Suites we stayed at during our stay in DFW.  Overall good stay, but there is some room for improvement.  The good:Front desk staff was friendly.  Hallways and common areas are very clean.  Breakfast was good. WiFi was strong and consistent.  The room was very clean, beds comfortable. The frig &amp; microwave are great to have. Pool/hot tub area was clean and not crowded, plenty of pool towels. There is a patio out back.Elevator is good sized and clean.  Parking lot is well maintained.The bad:We were pretty disappointed that the windows had been bolted shut and the screens removed.  Being able to open the windows and get fresh air is one of the things we really liked about other Comfort Suites we have stayed at.  There is no central air, the below the window unit is somewhat noisy and never really took the humidity out of the room.  This made the room somewhat stuffy.  The weather was beautiful outside.  Would've been wonderful to be able to open the window even a couple inches.  In the sitting area, it is so cramped you have to move the chair in order to open the sofa bed.  There was no bedding for the sofa bed.  We called down to the front desk and she said she'd bring it up.  25 minutes later we went down to find out what had happened.  She had forgotten.  There is a somewhat strong perfume smell in the lobby and hallways -- this can be very irritating/headache-inducing to those who are sensitive.  The sound insulation between floors is not very good.  Even with normal walking, it sounds fairly loud (like stomping).  It wasn't a big deal the first night as the hotel was pretty empty, but more noticeable the second night as it got more full.  There aren't many outlets -- the ones on the lamps are touchy at best - most things (laptop, iPad, phone, etc.) would not charge in them because things fit so loosely they don't make contact.  We ended up pulling the nightstand out, unplugging the clock radio and using that outlet.There is only 1 TV in the bedroom area (the other Comfort Suites had 1 in bed area, 1 in sitting area).  Not a deal breaker, but it was nicer to have 2 (so the child sleeping on sofa bed could watch his own show).  Overall good, but could've been great with some improvements.More</t>
   </si>
   <si>
-    <t>Hollie1960</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r246827751-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1015,9 +949,6 @@
     <t>We had arranged to meet some new friends in Fort Worth Dallas, so booked this hotel as it was close by. Lovely hotel. Very spacious rooms, with a sitting area. Bed was so comfortable with white cotton bedding, felt like home from home. The staff were so helpful, we planned on going to San Antonio after 3 nights at that hotel. They were only too willing to google maps for us to help with our journey. From there we were going to Louisiana, and once again they provided us with the best routes, and, always with a smile.Breakfast was very good, always a member  of staff in there if needed. The pool was quite cold, maybe I am just a wuss, who knows, and the Jacuzzi was very hot, a little too hot and we asked to have it turned down a little, 104 degrees is a little hot. The only gripe Ii had was the fact that the hoist to assist a disabled person was not working, and our friend and myself have Multiple Sclerosis and needed it.I would highly recommend this hotel for the friendliness, cleanliness and comfort. If we ever went back it would be the one I would stay in.More</t>
   </si>
   <si>
-    <t>RoundRockTravellers</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r244963702-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1039,9 +970,6 @@
     <t>We stayed at this hotel as this was the most convenient to the venue of the State All Star activities and game played in Azle, Texas.  We were very impressed on how clean and well maintained the property was.  The hotel staff was very friendly and helpful when we required additional linens for family members.  The suite itself seemed oversized which was a real bonus with my wife and older boys.  Even our sons commented on how this was a "big hotel room."  I woke up before the rest of the family and enjoyed catching up on my smart phone and watching GMA on the flat screen in the dining area which had a comfortable couch and chairs in addition to the tables for breakfast.  The breakfast buffet was what you expect at the usual "free breakfast" gig the next morning.  Waffle maker, cereal, scrambled eggs and bacon and fresh fruit and pastries.  Overall a delightful stay!More</t>
   </si>
   <si>
-    <t>Turab16</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r240081965-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1064,9 +992,6 @@
   </si>
   <si>
     <t>First the good points. - The hotel staff is very friendly and very helpful. - The breakfast is decent. - Beds are comfortable. - Rooms are clean. Now the negatives. - The Internet connection was the worst I have ever experienced at ANY hotel period!  It would be very painful to use the Internet to even load a basic page especially during the evening. - The bathroom floor towel / mat was not changed everyday. The other towels were. - There is a strange smell in the hallways which are dimly lit. - Over the two weeks of stay there were times when the shower water was not hot enough. Just mediocre hot at best. - The shuttle service is also very poor as the guy came up with excuses for the couple of times I did have to go somewhere. The biggest pet peeve is the slowest Internet connection. It was really aggravating over the two weeks of stay. More</t>
-  </si>
-  <si>
-    <t>robertru44</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r237906935-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -1106,9 +1031,6 @@
 Speaking of showers, we had a problem with the hot water, not what you are thinking, we had TOO MUCH HOT WATER!!  Like I said, we were up at 4 AM and showering (We were in FW for a 10...We love to stay here and do on an average of every six months, Good facility and prices and we have stayed enough times now, they know us on a first name basis!  We unfortunately, ran into a couple of disappointments this time around. we reserved a king suite, since it was the first time ever that my husband and I were away from our 2 children for 10 days, we thought we would make it somewhat romantic!  We got a 2 Queen Suite instead and when we inquired from the manager why that was the case, he informed us that all of the King rooms were reserved!  Well, we reserved one too and we called and talked directly to him, when we made our reservation!  They did offer to switch us to a King room halfway through our stay but it was a hassle to have to pack everything up and leave it in their back room for the day, (since we had to leave at the crack of dawn every morning) and then move to another room that night ,when we got in late and all we wanted to do is take a shower and go to bed!  Speaking of showers, we had a problem with the hot water, not what you are thinking, we had TOO MUCH HOT WATER!!  Like I said, we were up at 4 AM and showering (We were in FW for a 10 day horse show) and the water was unbearably hot, too hot to take a shower or even get under!  There was NO cold water at all.  We had to let the water run in the tub for over 30 minutes to get it to a temperature to be able to shower and even then it was very hot!  We mentioned it to the front desk and they had maintenance look at it, or so they said, but it never fixed the problem.    Also, we had one day that the maids left us bath towels with literal holes and large tears in them!!We were pleasantly surprised when the free breakfast was ready at 5 AM, as we were walking out the door for our day, it was wonderful to have a hot breakfast that early!!  The security is great there and everyone is very friendly and I would still recommend this establishment, just wish our stay had been a little more accommodating!More</t>
   </si>
   <si>
-    <t>Cynthia B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r229635925-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1130,9 +1052,6 @@
     <t>Stayed here in August --had two suites right across the hall from each other.  Everything was great--staff was very helpful.  Front desk turned on the breakfast area lights so that our large family could eat the pizza that we had delivered.  Would definitely stay again.More</t>
   </si>
   <si>
-    <t>spurgeonlover</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r219651504-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1154,9 +1073,6 @@
     <t>This appears to be a fairly new facility and is in great condition.  We were very much welcomed at the desk when we arrived and the room was excellent - I like the little partition in the room that separates a pull-out couch and chair from the bed.  The bed was very comfortable.  Bathroom was very nice - a high counter for my 6'6" husband - and nicely decorated.   The happy hour was not expected so that was a bonus, although don't look to get full on it.  There were several bowls of nuts and a pretzel snack - along with beer and wine.  We did enjoy that before going out for supper. The manager? came around and was very pleasant. Breakfast was typical fare - waffles (Texas shaped!), eggs, sausage, toast/muffins, cereals, yogurt, bananas/apples, juice/coffee/tea.  It was OK.More</t>
   </si>
   <si>
-    <t>ScottDJones</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r210024519-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1175,9 +1091,6 @@
     <t>My wife and I stayed here with the in-laws back in May and will be staying here again soon during the 4th of July holiday. The staff is very helpful and the rooms are really nice. Just like you would expect from a Comfort Suites. They have an indoor pool, hot tub, fitness center, and complimentary breakfast. Whenever we are in Lake Worth we will stay here.More</t>
   </si>
   <si>
-    <t>Garry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r206886425-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1205,9 +1118,6 @@
     <t>Been here twice and really like it. Place is pretty new so everything is in good shape. Indoor pool and hot tub sure were nice. Room was very clean and the beds and pillows at Comfort Suites are our favorites. During the week they have a free happy hour with beer and wine. A very short drive to lots of restaurants. I recommend it.More</t>
   </si>
   <si>
-    <t>Pcstamper</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r206627101-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1226,9 +1136,6 @@
     <t>I booked my reservation for a group of senior I was bring to Ft. Worth. the person I talk to I thought had everything down correctly, but when I got up to the Hotel late afternoon the day I had reserved they claimed that my rooms had been reserved for the night before.  They were  able to find a few rooms to  accommodate everyone in my party ( although  we did have to double up on the rooms because the didn't have enough rooms).  The clerk that was on duty was very nice and helpful.  But then they went and charge me for the previous night as a no show. I did manage to get credit for the 5 of the rooms we had stayed in but they still charged me for the 6 no show rooms. Well I will never stay in this hotel again and I will think twice about staying in any other Comfort Suite.  I book 11 rooms at hotels once a month for my group so that is a lot of business they will miss out on.More</t>
   </si>
   <si>
-    <t>Eric G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r201397508-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1247,9 +1154,6 @@
     <t>room seemed to be OK. got there late at night and went right to sleep. The next morning, when we woke up, I noticed the pillow I slept on had mold on the pillow case and was through to the pillow. After telling the Manager, the only response I got was, It must have been from the cleaning supplies on the headboard. I wonder how come it wasn't on the other 2 pillows that was against the headboard. No apology, only a " we will get you another pillow to your room." A lot of good that did us since we were checking out. The breakfast was also disappointing. bacon seemed imitation. Appearance of the hotel was nice, but doubt I would ever stay there again.More</t>
   </si>
   <si>
-    <t>Beth H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r193211691-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1268,9 +1172,6 @@
     <t>Excellent staff!  Very friendly and helpful.  Large pool, hot tub area and workout facility.  Clean rooms.  A little noisy since we were across the hall from the ice machine. Overall great visit and very convenient for our visit to the stock show. Stayed 4 nights and will stay again when we are in the area. More</t>
   </si>
   <si>
-    <t>sarge007-11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r190423929-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1298,9 +1199,6 @@
     <t>Have stayed here on 2 different occasions last year, the latest being on Christmas Eve. The hotel is very clean and also smells clean.Rooms are a good size with a couch in them. There is a little shopping center very close by which includes an Albertsons grocery store.If we are ever in the area again, this will be the place we stay.More</t>
   </si>
   <si>
-    <t>Agatag</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r190381725-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1316,9 +1214,6 @@
     <t>This hotel made our visit with family in Ft Worth a real pleasure, would recommend it to anyone, great value for your bucks! It's new and well kept, plus the staff was friendly and always ready to assist you, plus it has a great breakfast, better than most hotels.More</t>
   </si>
   <si>
-    <t>martefoster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r188001535-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1337,9 +1232,6 @@
     <t>i chose this hotel because it was close to family while i was on vacation with my family, new hotel, very clean and neat, good breakfast, we stayed 7 days , good price, we were very happy with the staff, thanks.More</t>
   </si>
   <si>
-    <t>nthompsonip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r185840538-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1406,9 +1298,6 @@
     <t>Was very surprised as to how nice this hotel was.  We normally travel to the Fort Worth area for business and stay at one of the hotels downtown, but because we had to travel outside of Fort Worth we chose this hotel because of the convenience to the location we were to visit.  The rooms were very nice and comfortable, the "Free" breakfast was very good, the staff were very friendly and informative.  And you couldn't beat the price.  We would definitely stay at this hotel again.More</t>
   </si>
   <si>
-    <t>AZMesaFamily</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r178595420-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1427,9 +1316,6 @@
     <t>My wife and I stayed here for tonight's. The hotel staff is one of the friendliest staff's I have ever encountered in all my travel. Every worker from the front desk people to the breakfast person to the house keeping person were all friendly and greeted you every time. The rooms are larger than normal and vary clean. The breakfast area was extremely clean and had a wide variety of food that was constantly Replenished. The food is what you would expect from a comfort suites with juices, milk, yogurt, boiled eggs, two waffle makers, variety of bread, Sausage and eggs one morning and biscuits and gravy on the other. The area around the hotel was really nice with a wide variety of places to eat. The hotel had a security person on site and in the parking lot at night so when we came in late we felt safe and felt our care was safe also. The only reason I did not give this hotel a perfect score was because on the second night my room key did not work and when I went down to the front desk to get a new key the front desk person asked me what my room number was and gave me a new key without asking my name or checking my ID. This is a major problem with an easy solution. More</t>
   </si>
   <si>
-    <t>NorWester12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r177539148-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1452,9 +1338,6 @@
   </si>
   <si>
     <t>I travel to Lake Worth once a month on average and have stayed in almost all of the local chain hotels. Comfort Suites is a great value, very good location and the staff if very, very, polite, welcoming and helpful. Rooms and hallways are clean and kept up.  This will be my "go to" lodging for the area. (Surprisingly quiet for the location!)More</t>
-  </si>
-  <si>
-    <t>VinGins</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r176312459-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -1483,9 +1366,6 @@
 But, wait...there's more. Our next stay at any Choice Hotel will be free as they are running a special through November for a free stay for every two separate stays at one of their thousands of locations....Our second stay this year at this new property. Everything about this place is top notch. Large inviting common space as you enter, polished wood trimming throughout. On looks alone I give this one 5 stars, especially considering the rate we received through Choice Hotels. The rooms were outfitted with handsome, modern decor, and the whole place had a pleasing smell to it (not that over the top disinfectant smell can sometimes begin to permeate over time). Great bed and linens, soft towels, AC worked great, as did the wifi. We were given both an early check in and late check out to accommodate our travel schedule and the staff was genuinely friendly and concerned with our needs (which were few as everything had been addressed). I'm usually not a fan of the complimentary breakfast, but this hotel goes a little further than most in providing a varied selection and a large comfortable room for folks to gather. And what a nice group of folks there were staying in this hotel. It's refreshing to see guests striking up conversations with one another rather than staring in silence at the TV. All in all, another perfect stay at this jewel west of Fort Worth.But, wait...there's more. Our next stay at any Choice Hotel will be free as they are running a special through November for a free stay for every two separate stays at one of their thousands of locations. For working travelers such as we are, this is a real bonus. Check out their website for details. And, when we're back through Fort Worth again, we'll be staying here. I might add that there this location puts you in close proximity to quality restaurants and inexpensive gas all in safe surroundings right off the loop. Some rooms even offer spectacular views of the surrounding landscape. I think that about covers it. Happy motoring!More</t>
   </si>
   <si>
-    <t>suzanne s</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r174133954-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1528,9 +1408,6 @@
     <t>We stayed for 9 days at this hotel and had a good experience the whole time!  We actually had to change rooms mid-stay because our room did not have water pressure in the shower and it was a Sunday, so no plumber available, but the manager switched us to a like room within a very short time!  Nice accommodations, nice facility, good breakfast and very friendly help!  The only things I would have changed were some of the other guests rudeness (LOL!) and maybe having a guest laundry on the first floor!  Will definitely stay again, if we are in the area and appreciate all the effort the management puts into each guests stay!  Thank you!!More</t>
   </si>
   <si>
-    <t>Boco81</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r162914523-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1555,9 +1432,6 @@
     <t>As a two week stay turned into five weeks, a friendly &amp; helpful Staff made all the difference. Kudos to the Front Desk personnel, Valerie, Yeneti, Lily, Brandon, Cole &amp; Fabian and all others who took care of us &amp; gave us a peaceful state of mind in secure surroundings. When we need to return in the future, hope to see y'all once again. Many thanks, Bob &amp; Niki Bohanon, Room 409.More</t>
   </si>
   <si>
-    <t>DLTIGOMEZ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r161321989-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1585,9 +1459,6 @@
     <t>Stayed at this hotel for a week and it was a great experience. Rooms were immaculate and well kept. Breakfast was very old, hit and ready each morning. I strongly recommend this hotel when in north Texas!More</t>
   </si>
   <si>
-    <t>Millie T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r160567515-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1609,9 +1480,6 @@
     <t>Absolutely wonderful hotel.  The staff was beyond helpful.  The breaksfast attendant was great ...lovely smile.  I really felt like I was at home.  Also, the rooms were wonderful and I really felt that the management was putting in great effort to insure that the guests were taken care of.  Great place!More</t>
   </si>
   <si>
-    <t>happytraveler771</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r159153890-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1633,9 +1501,6 @@
     <t>I chose this hotel based on reviews on Trip Advisor and I'm glad I did!  The first thing I noticed upon entering the hotel was a wonderful "clean" smell.  Everything was spotless.  My room was just as clean as the lobby.  Although I didn't use the amenities, I did enjoy the free breakfast which was plentiful -- fruit, yogurt, breads, waffles, etc.  The location was very convenient to the expressway and restaurants/shopping.  I will definitely stay there on my next trip to Fort Worth.More</t>
   </si>
   <si>
-    <t>Mark W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r157709745-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1654,9 +1519,6 @@
     <t>Fully staffed hotel that is clean and caters to the business traveler as well as families. Full cable TV(No X rated pay per view,thank you!) Nice indoor pool and hot tub area. Breakfast area was nice and fully stocked. (Any past issues with this area have been addressed). Rooms are clean and comfortable. Hotel is located in a good area. GOOD security is provided in the parking lot seven nights a week 10P-6A. Shopping and restaurants within three minutes driving time.More</t>
   </si>
   <si>
-    <t>Guest56797</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r150698119-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1678,9 +1540,6 @@
     <t>Don't know what happened in December but we stayed here two nights in January 2013 and every thing was great!!! Friendly staff,great breakfast and clean. Beds were great also. Spacious rooms. We will stay here again when in Ft Worth!GmaMore</t>
   </si>
   <si>
-    <t>Oil N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r147676839-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1702,9 +1561,6 @@
     <t>Three nights (Thursday, Friday and Saturday) and three rooms for a reunion and, wow: were we disappointed.  Friday morning, breakfast supposedly served until 10 am but the eggs were gone by 8:45 - and no one in the kitchen.  The desk clerk had a housekeeper come in, who looked around and found bacon, then said, "we have no more eggs."  Same on Saturday, they ran out but they at least made more eggs.  No dedicated breakfast staff - it was the housekeeping staff that tried their best, but as they went to re-fill empty juice containers, someone would tell them the coffee was gone, then the milk was gone, then the trash container was over-flowing.  Then... "no more eggs?" The housekeeping staff was embarrassed and taking the brunt of the complaints - that's just not right!  We had to move from one of our rooms because the window seals that kept the slider window closed and locked, allowed a cold draft and road noise that kept the heater running full time to keep up. It was to be fixed on Friday, but the desk clerk Friday afternoon said that maintenance was only part time - and Friday was a day they didn't work.  Two rooms had blankets, one didn't. And, there was no manager the whole time! This is a new Comfort Suites? They're going to lose this franchise and become "Billy Bob's Budget Inn" unless they make some changes.More</t>
   </si>
   <si>
-    <t>Kim S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r140178334-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1724,9 +1580,6 @@
   </si>
   <si>
     <t>We stayed for 2 nights to visit with family.  Friendly staff, great rooms, good breakfast, and a great price.  Sheets on the bed were a little scratchy, that was my only complaint.  Would stay here again for sure!More</t>
-  </si>
-  <si>
-    <t>JNargang</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d2049085-r138782779-Comfort_Suites_at_Lake_Worth-Fort_Worth_Texas.html</t>
@@ -2249,47 +2102,43 @@
       <c r="A2" t="n">
         <v>60330</v>
       </c>
-      <c r="B2" t="n">
-        <v>125015</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2303,188 +2152,164 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60330</v>
       </c>
-      <c r="B3" t="n">
-        <v>561</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60330</v>
       </c>
-      <c r="B4" t="n">
-        <v>1483</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60330</v>
       </c>
-      <c r="B5" t="n">
-        <v>125016</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2498,66 +2323,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60330</v>
       </c>
-      <c r="B6" t="n">
-        <v>125017</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>62</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2565,66 +2386,62 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60330</v>
       </c>
-      <c r="B7" t="n">
-        <v>124365</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2632,45 +2449,41 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60330</v>
       </c>
-      <c r="B8" t="n">
-        <v>125018</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -2679,7 +2492,7 @@
         <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2693,115 +2506,113 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60330</v>
       </c>
-      <c r="B9" t="n">
-        <v>17009</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60330</v>
       </c>
-      <c r="B10" t="n">
-        <v>125019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2813,7 +2624,7 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2821,54 +2632,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60330</v>
       </c>
-      <c r="B11" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2882,131 +2689,119 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60330</v>
       </c>
-      <c r="B12" t="n">
-        <v>125020</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60330</v>
       </c>
-      <c r="B13" t="n">
-        <v>125021</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
         <v>4</v>
       </c>
-      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3014,131 +2809,119 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60330</v>
       </c>
-      <c r="B14" t="n">
-        <v>125022</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60330</v>
       </c>
-      <c r="B15" t="n">
-        <v>15230</v>
-      </c>
-      <c r="C15" t="s">
-        <v>144</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -3146,186 +2929,184 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60330</v>
       </c>
-      <c r="B16" t="n">
-        <v>125023</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60330</v>
       </c>
-      <c r="B17" t="n">
-        <v>125024</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>100</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60330</v>
       </c>
-      <c r="B18" t="n">
-        <v>48928</v>
-      </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3333,194 +3114,170 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60330</v>
       </c>
-      <c r="B19" t="n">
-        <v>48626</v>
-      </c>
-      <c r="C19" t="s">
-        <v>172</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O19" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60330</v>
       </c>
-      <c r="B20" t="n">
-        <v>125025</v>
-      </c>
-      <c r="C20" t="s">
-        <v>178</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60330</v>
       </c>
-      <c r="B21" t="n">
-        <v>125026</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
@@ -3532,63 +3289,59 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60330</v>
       </c>
-      <c r="B22" t="n">
-        <v>99696</v>
-      </c>
-      <c r="C22" t="s">
-        <v>192</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -3599,369 +3352,351 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60330</v>
       </c>
-      <c r="B23" t="n">
-        <v>73580</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60330</v>
       </c>
-      <c r="B24" t="n">
-        <v>24824</v>
-      </c>
-      <c r="C24" t="s">
-        <v>206</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60330</v>
       </c>
-      <c r="B25" t="n">
-        <v>125027</v>
-      </c>
-      <c r="C25" t="s">
-        <v>214</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60330</v>
       </c>
-      <c r="B26" t="n">
-        <v>1265</v>
-      </c>
-      <c r="C26" t="s">
-        <v>220</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60330</v>
       </c>
-      <c r="B27" t="n">
-        <v>125028</v>
-      </c>
-      <c r="C27" t="s">
-        <v>226</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60330</v>
       </c>
-      <c r="B28" t="n">
-        <v>125029</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3975,122 +3710,120 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60330</v>
       </c>
-      <c r="B29" t="n">
-        <v>5505</v>
-      </c>
-      <c r="C29" t="s">
-        <v>239</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60330</v>
       </c>
-      <c r="B30" t="n">
-        <v>125030</v>
-      </c>
-      <c r="C30" t="s">
-        <v>247</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K30" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4101,119 +3834,107 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60330</v>
       </c>
-      <c r="B31" t="n">
-        <v>125031</v>
-      </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60330</v>
       </c>
-      <c r="B32" t="n">
-        <v>125032</v>
-      </c>
-      <c r="C32" t="s">
-        <v>261</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4227,385 +3948,353 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60330</v>
       </c>
-      <c r="B33" t="n">
-        <v>125033</v>
-      </c>
-      <c r="C33" t="s">
-        <v>268</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60330</v>
       </c>
-      <c r="B34" t="n">
-        <v>125034</v>
-      </c>
-      <c r="C34" t="s">
-        <v>275</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K34" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L34" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60330</v>
       </c>
-      <c r="B35" t="n">
-        <v>125035</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60330</v>
       </c>
-      <c r="B36" t="n">
-        <v>125036</v>
-      </c>
-      <c r="C36" t="s">
-        <v>289</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>3</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60330</v>
       </c>
-      <c r="B37" t="n">
-        <v>125037</v>
-      </c>
-      <c r="C37" t="s">
-        <v>296</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="J37" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="K37" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60330</v>
       </c>
-      <c r="B38" t="n">
-        <v>125038</v>
-      </c>
-      <c r="C38" t="s">
-        <v>303</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4613,64 +4302,62 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60330</v>
       </c>
-      <c r="B39" t="n">
-        <v>125039</v>
-      </c>
-      <c r="C39" t="s">
-        <v>310</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
       <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4678,61 +4365,57 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60330</v>
       </c>
-      <c r="B40" t="n">
-        <v>125040</v>
-      </c>
-      <c r="C40" t="s">
-        <v>317</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4743,57 +4426,55 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60330</v>
       </c>
-      <c r="B41" t="n">
-        <v>125041</v>
-      </c>
-      <c r="C41" t="s">
-        <v>325</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="O41" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>5</v>
@@ -4808,128 +4489,118 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60330</v>
       </c>
-      <c r="B42" t="n">
-        <v>125042</v>
-      </c>
-      <c r="C42" t="s">
-        <v>333</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>335</v>
+        <v>291</v>
       </c>
       <c r="J42" t="s">
-        <v>336</v>
+        <v>292</v>
       </c>
       <c r="K42" t="s">
-        <v>337</v>
+        <v>293</v>
       </c>
       <c r="L42" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>339</v>
-      </c>
-      <c r="X42" t="s">
-        <v>340</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60330</v>
       </c>
-      <c r="B43" t="n">
-        <v>99707</v>
-      </c>
-      <c r="C43" t="s">
-        <v>342</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="J43" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="L43" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4937,66 +4608,56 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>339</v>
-      </c>
-      <c r="X43" t="s">
-        <v>340</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60330</v>
       </c>
-      <c r="B44" t="n">
-        <v>125034</v>
-      </c>
-      <c r="C44" t="s">
-        <v>281</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>350</v>
+        <v>304</v>
       </c>
       <c r="J44" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>5</v>
@@ -5008,134 +4669,120 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>339</v>
-      </c>
-      <c r="X44" t="s">
-        <v>340</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60330</v>
       </c>
-      <c r="B45" t="n">
-        <v>7310</v>
-      </c>
-      <c r="C45" t="s">
-        <v>354</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="J45" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="K45" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="X45" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Y45" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60330</v>
       </c>
-      <c r="B46" t="n">
-        <v>125043</v>
-      </c>
-      <c r="C46" t="s">
-        <v>362</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="J46" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="K46" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
       <c r="S46" t="n">
         <v>5</v>
       </c>
@@ -5147,148 +4794,130 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="X46" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Y46" t="s">
-        <v>369</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60330</v>
       </c>
-      <c r="B47" t="n">
-        <v>125044</v>
-      </c>
-      <c r="C47" t="s">
-        <v>370</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>371</v>
+        <v>324</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="K47" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="O47" t="s">
-        <v>62</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="n">
         <v>5</v>
       </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
+      <c r="R47" t="s"/>
       <c r="S47" t="n">
         <v>5</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="X47" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="Y47" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60330</v>
       </c>
-      <c r="B48" t="n">
-        <v>111626</v>
-      </c>
-      <c r="C48" t="s">
-        <v>377</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
         <v>5</v>
@@ -5297,138 +4926,124 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="X48" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="Y48" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60330</v>
       </c>
-      <c r="B49" t="n">
-        <v>125045</v>
-      </c>
-      <c r="C49" t="s">
-        <v>387</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>336</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="J49" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="X49" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="Y49" t="s">
-        <v>393</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60330</v>
       </c>
-      <c r="B50" t="n">
-        <v>13398</v>
-      </c>
-      <c r="C50" t="s">
-        <v>394</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
@@ -5437,209 +5052,211 @@
         <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="X50" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60330</v>
       </c>
-      <c r="B51" t="n">
-        <v>3081</v>
-      </c>
-      <c r="C51" t="s">
-        <v>401</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="X51" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="Y51" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60330</v>
       </c>
-      <c r="B52" t="n">
-        <v>125046</v>
-      </c>
-      <c r="C52" t="s">
-        <v>408</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="X52" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60330</v>
       </c>
-      <c r="B53" t="n">
-        <v>125047</v>
-      </c>
-      <c r="C53" t="s">
-        <v>418</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
@@ -5648,173 +5265,151 @@
         <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="X53" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60330</v>
       </c>
-      <c r="B54" t="n">
-        <v>125048</v>
-      </c>
-      <c r="C54" t="s">
-        <v>424</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="K54" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
-      </c>
-      <c r="N54" t="s">
-        <v>414</v>
-      </c>
-      <c r="O54" t="s">
-        <v>62</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>415</v>
+        <v>355</v>
       </c>
       <c r="X54" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60330</v>
       </c>
-      <c r="B55" t="n">
-        <v>125049</v>
-      </c>
-      <c r="C55" t="s">
-        <v>431</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>376</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>377</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>378</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>380</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="O55" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
         <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="X55" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56">
@@ -5827,102 +5422,108 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>378</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>437</v>
+        <v>381</v>
       </c>
       <c r="O56" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" t="s"/>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
-      <c r="U56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="X56" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="Y56" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60330</v>
       </c>
-      <c r="B57" t="n">
-        <v>99696</v>
-      </c>
-      <c r="C57" t="s">
-        <v>192</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>392</v>
       </c>
       <c r="K57" t="s">
-        <v>448</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s">
-        <v>449</v>
+        <v>394</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5944,57 +5545,57 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="X57" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="Y57" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60330</v>
       </c>
-      <c r="B58" t="n">
-        <v>125050</v>
-      </c>
-      <c r="C58" t="s">
-        <v>454</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>397</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>398</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>399</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>400</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>401</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
@@ -6015,132 +5616,118 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="X58" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60330</v>
       </c>
-      <c r="B59" t="n">
-        <v>125051</v>
-      </c>
-      <c r="C59" t="s">
-        <v>461</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>403</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>405</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="O59" t="s">
-        <v>100</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>4</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
       <c r="X59" t="s">
-        <v>468</v>
+        <v>383</v>
       </c>
       <c r="Y59" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60330</v>
       </c>
-      <c r="B60" t="n">
-        <v>125052</v>
-      </c>
-      <c r="C60" t="s">
-        <v>470</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>409</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>410</v>
       </c>
       <c r="J60" t="s">
-        <v>473</v>
+        <v>411</v>
       </c>
       <c r="K60" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>413</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
-      <c r="N60" t="s"/>
-      <c r="O60" t="s"/>
+      <c r="N60" t="s">
+        <v>414</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
       <c r="P60" t="n">
         <v>5</v>
       </c>
@@ -6161,61 +5748,53 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="X60" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60330</v>
       </c>
-      <c r="B61" t="n">
-        <v>17855</v>
-      </c>
-      <c r="C61" t="s">
-        <v>479</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>480</v>
+        <v>418</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>481</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
-        <v>482</v>
+        <v>420</v>
       </c>
       <c r="K61" t="s">
-        <v>483</v>
+        <v>421</v>
       </c>
       <c r="L61" t="s">
-        <v>484</v>
+        <v>422</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
-      </c>
-      <c r="N61" t="s">
-        <v>485</v>
-      </c>
-      <c r="O61" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
         <v>5</v>
       </c>
@@ -6236,72 +5815,68 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="X61" t="s">
-        <v>477</v>
+        <v>416</v>
       </c>
       <c r="Y61" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60330</v>
       </c>
-      <c r="B62" t="n">
-        <v>125034</v>
-      </c>
-      <c r="C62" t="s">
-        <v>281</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="J62" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="K62" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="L62" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>492</v>
+        <v>414</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
@@ -6311,51 +5886,47 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="X62" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="Y62" t="s">
-        <v>493</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60330</v>
       </c>
-      <c r="B63" t="n">
-        <v>125053</v>
-      </c>
-      <c r="C63" t="s">
-        <v>494</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="J63" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="K63" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="L63" t="s">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6382,125 +5953,127 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="X63" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="Y63" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60330</v>
       </c>
-      <c r="B64" t="n">
-        <v>125054</v>
-      </c>
-      <c r="C64" t="s">
-        <v>503</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="J64" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="K64" t="s">
-        <v>507</v>
+        <v>443</v>
       </c>
       <c r="L64" t="s">
-        <v>508</v>
+        <v>444</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>509</v>
+        <v>445</v>
       </c>
       <c r="O64" t="s">
-        <v>100</v>
-      </c>
-      <c r="P64" t="s"/>
-      <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="X64" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="Y64" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60330</v>
       </c>
-      <c r="B65" t="n">
-        <v>125055</v>
-      </c>
-      <c r="C65" t="s">
-        <v>513</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>447</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>515</v>
+        <v>448</v>
       </c>
       <c r="J65" t="s">
-        <v>516</v>
+        <v>449</v>
       </c>
       <c r="K65" t="s">
-        <v>517</v>
+        <v>450</v>
       </c>
       <c r="L65" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6522,215 +6095,191 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>510</v>
+        <v>437</v>
       </c>
       <c r="X65" t="s">
-        <v>511</v>
+        <v>438</v>
       </c>
       <c r="Y65" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60330</v>
       </c>
-      <c r="B66" t="n">
-        <v>125056</v>
-      </c>
-      <c r="C66" t="s">
-        <v>521</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>454</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>523</v>
+        <v>455</v>
       </c>
       <c r="J66" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="K66" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="L66" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
-      </c>
-      <c r="N66" t="s">
-        <v>527</v>
-      </c>
-      <c r="O66" t="s">
-        <v>92</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
       <c r="P66" t="n">
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
         <v>5</v>
       </c>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>510</v>
+        <v>459</v>
       </c>
       <c r="X66" t="s">
-        <v>511</v>
+        <v>460</v>
       </c>
       <c r="Y66" t="s">
-        <v>528</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60330</v>
       </c>
-      <c r="B67" t="n">
-        <v>2537</v>
-      </c>
-      <c r="C67" t="s">
-        <v>529</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>531</v>
+        <v>463</v>
       </c>
       <c r="J67" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
       <c r="L67" t="s">
-        <v>534</v>
+        <v>466</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>527</v>
+        <v>467</v>
       </c>
       <c r="O67" t="s">
-        <v>100</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
-      <c r="R67" t="n">
-        <v>4</v>
-      </c>
-      <c r="S67" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
       <c r="T67" t="s"/>
-      <c r="U67" t="n">
-        <v>5</v>
-      </c>
+      <c r="U67" t="s"/>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="X67" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="Y67" t="s">
-        <v>535</v>
+        <v>470</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60330</v>
       </c>
-      <c r="B68" t="n">
-        <v>125057</v>
-      </c>
-      <c r="C68" t="s">
-        <v>536</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>471</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>538</v>
+        <v>472</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>473</v>
       </c>
       <c r="K68" t="s">
-        <v>540</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
       </c>
-      <c r="Q68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
       <c r="R68" t="n">
         <v>5</v>
       </c>
@@ -6745,135 +6294,127 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="X68" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="Y68" t="s">
-        <v>543</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60330</v>
       </c>
-      <c r="B69" t="n">
-        <v>125058</v>
-      </c>
-      <c r="C69" t="s">
-        <v>544</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="J69" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="K69" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="O69" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R69" t="n">
         <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="X69" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="Y69" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60330</v>
       </c>
-      <c r="B70" t="n">
-        <v>15668</v>
-      </c>
-      <c r="C70" t="s">
-        <v>552</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>553</v>
+        <v>485</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>554</v>
+        <v>486</v>
       </c>
       <c r="J70" t="s">
-        <v>555</v>
+        <v>487</v>
       </c>
       <c r="K70" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="L70" t="s">
-        <v>557</v>
+        <v>489</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>558</v>
+        <v>483</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6882,7 +6423,7 @@
         <v>5</v>
       </c>
       <c r="R70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S70" t="n">
         <v>5</v>
@@ -6895,63 +6436,61 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="X70" t="s">
-        <v>511</v>
+        <v>469</v>
       </c>
       <c r="Y70" t="s">
-        <v>559</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60330</v>
       </c>
-      <c r="B71" t="n">
-        <v>125059</v>
-      </c>
-      <c r="C71" t="s">
-        <v>560</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="J71" t="s">
-        <v>563</v>
+        <v>493</v>
       </c>
       <c r="K71" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="L71" t="s">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
-      </c>
-      <c r="N71" t="s"/>
-      <c r="O71" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>496</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
       <c r="P71" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q71" t="s"/>
       <c r="R71" t="n">
         <v>5</v>
       </c>
@@ -6966,13 +6505,222 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
+        <v>468</v>
+      </c>
+      <c r="X71" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60330</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>499</v>
+      </c>
+      <c r="J72" t="s">
+        <v>500</v>
+      </c>
+      <c r="K72" t="s">
+        <v>501</v>
+      </c>
+      <c r="L72" t="s">
+        <v>502</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>503</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>468</v>
+      </c>
+      <c r="X72" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60330</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>505</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" t="s">
+        <v>507</v>
+      </c>
+      <c r="K73" t="s">
+        <v>508</v>
+      </c>
+      <c r="L73" t="s">
+        <v>509</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
         <v>510</v>
       </c>
-      <c r="X71" t="s">
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>468</v>
+      </c>
+      <c r="X73" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y73" t="s">
         <v>511</v>
       </c>
-      <c r="Y71" t="s">
-        <v>566</v>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60330</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>512</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>513</v>
+      </c>
+      <c r="J74" t="s">
+        <v>514</v>
+      </c>
+      <c r="K74" t="s">
+        <v>515</v>
+      </c>
+      <c r="L74" t="s">
+        <v>516</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>468</v>
+      </c>
+      <c r="X74" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
